--- a/biology/Zoologie/Eurybia_cyclopia/Eurybia_cyclopia.xlsx
+++ b/biology/Zoologie/Eurybia_cyclopia/Eurybia_cyclopia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurybia cyclopia est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Eurybia.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Eurybia cyclopia a été décrit par Hans Ferdinand Emil Julius Stichel en 1910[1].
-Sous-espèces
-Eurybia cyclopia cyclopia; à Panama, au Costa Rica et en Équateur.
-Eurybia cyclopia montsineryensis Brévignon, 1997; présent en Guyane[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurybia cyclopia a été décrit par Hans Ferdinand Emil Julius Stichel en 1910.
+</t>
         </is>
       </c>
     </row>
@@ -541,13 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Noms vernaculaires</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il se nomme Fire-bordered Eurybia en anglais[2].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Eurybia cyclopia cyclopia; à Panama, au Costa Rica et en Équateur.
+Eurybia cyclopia montsineryensis Brévignon, 1997; présent en Guyane.</t>
         </is>
       </c>
     </row>
@@ -572,13 +590,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurybia cyclopia est de taille moyenne avec une envergure d'environ 38 mm pour les mâles et d'environ 40 mm pour les femelles[3]. Le dessus est de couleur marron clair avec aux antérieures un gros ocelle centré de noir et une ligne submarginale d'ocelles centrés de foncé, et aux postérieures la même ligne submarginale d'ocelles centrés de noir sur une large bande jaune cuivré.
-Le revers est beige clair avec la même ornementation.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme Fire-bordered Eurybia en anglais.
 </t>
         </is>
       </c>
@@ -604,10 +623,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurybia cyclopia est de taille moyenne avec une envergure d'environ 38 mm pour les mâles et d'environ 40 mm pour les femelles. Le dessus est de couleur marron clair avec aux antérieures un gros ocelle centré de noir et une ligne submarginale d'ocelles centrés de foncé, et aux postérieures la même ligne submarginale d'ocelles centrés de noir sur une large bande jaune cuivré.
+Le revers est beige clair avec la même ornementation.
+</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -630,15 +657,80 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eurybia_cyclopia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurybia_cyclopia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Eurybia cyclopia est présent en Amérique sous forme de deux isolats, l'un en Guyane, l'autre à Panama, au Costa Rica et en Équateur[1]. Il est aussi présent au Venezuela et au Pérou[3].
-Biotope
-Il réside dans la forêt tropicale.
-Protection</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurybia cyclopia est présent en Amérique sous forme de deux isolats, l'un en Guyane, l'autre à Panama, au Costa Rica et en Équateur. Il est aussi présent au Venezuela et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eurybia_cyclopia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurybia_cyclopia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
         </is>
       </c>
     </row>
